--- a/public/data/yield_loss/yield_table_ethiopia.xlsx
+++ b/public/data/yield_loss/yield_table_ethiopia.xlsx
@@ -3798,7 +3798,7 @@
         <v>281.23</v>
       </c>
       <c r="F32" t="n">
-        <v>647.36</v>
+        <v>647.31</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>997.34</v>
       </c>
       <c r="F33" t="n">
-        <v>385.74</v>
+        <v>385.58</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>34.24</v>
+        <v>34.22</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>1557.17</v>
       </c>
       <c r="F34" t="n">
-        <v>4828.88</v>
+        <v>4725.83</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1168.95</v>
+        <v>1154.36</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>658.22</v>
+        <v>656.82</v>
       </c>
       <c r="M34" t="n">
-        <v>6198.61</v>
+        <v>6118.03</v>
       </c>
       <c r="N34" t="n">
         <v>47642.74</v>
@@ -4003,7 +4003,7 @@
         <v>26976.75</v>
       </c>
       <c r="U34" t="n">
-        <v>567.74</v>
+        <v>565.46</v>
       </c>
       <c r="V34" t="n">
         <v>57.3</v>
@@ -4038,13 +4038,13 @@
         <v>3647.23</v>
       </c>
       <c r="F35" t="n">
-        <v>2415.77</v>
+        <v>2390.94</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>624.68</v>
+        <v>623.29</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>671.58</v>
+        <v>670.73</v>
       </c>
       <c r="M35" t="n">
-        <v>706.47</v>
+        <v>705.03</v>
       </c>
       <c r="N35" t="n">
         <v>59270.46</v>
@@ -4083,7 +4083,7 @@
         <v>20370.31</v>
       </c>
       <c r="U35" t="n">
-        <v>112.74</v>
+        <v>112.68</v>
       </c>
       <c r="V35" t="n">
         <v>83.33</v>
@@ -4358,13 +4358,13 @@
         <v>438.15</v>
       </c>
       <c r="F39" t="n">
-        <v>84.08</v>
+        <v>84.06</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1151.21</v>
+        <v>1151.2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>108.17</v>
+        <v>108.11</v>
       </c>
       <c r="M39" t="n">
         <v>128.8</v>
@@ -4438,13 +4438,13 @@
         <v>437.93</v>
       </c>
       <c r="F40" t="n">
-        <v>3254.9</v>
+        <v>3235.71</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1912.12</v>
+        <v>1900.76</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>181.46</v>
+        <v>181.22</v>
       </c>
       <c r="M40" t="n">
-        <v>398.97</v>
+        <v>395.42</v>
       </c>
       <c r="N40" t="n">
         <v>19449.9</v>
@@ -4483,7 +4483,7 @@
         <v>11659.12</v>
       </c>
       <c r="U40" t="n">
-        <v>95.44</v>
+        <v>95.41</v>
       </c>
       <c r="V40" t="n">
         <v>23.76</v>
@@ -4678,13 +4678,13 @@
         <v>2277.74</v>
       </c>
       <c r="F43" t="n">
-        <v>1337.88</v>
+        <v>1293.18</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>832.55</v>
+        <v>810.02</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>333.42</v>
+        <v>329.25</v>
       </c>
       <c r="M43" t="n">
-        <v>109.92</v>
+        <v>107.79</v>
       </c>
       <c r="N43" t="n">
         <v>41217.57</v>
@@ -4723,7 +4723,7 @@
         <v>15605.52</v>
       </c>
       <c r="U43" t="n">
-        <v>189.79</v>
+        <v>187.15</v>
       </c>
       <c r="V43" t="n">
         <v>13.15</v>
